--- a/biology/Botanique/Nidorella_aegyptiaca/Nidorella_aegyptiaca.xlsx
+++ b/biology/Botanique/Nidorella_aegyptiaca/Nidorella_aegyptiaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nidorella aegyptiaca est une espèce de la famille des Asteraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce annuelle ou bisannuelle originaire d'Afrique[1]. Son aire de répartition indigène s’étend de l’Afrique à l’Indochine. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce annuelle ou bisannuelle originaire d'Afrique. Son aire de répartition indigène s’étend de l’Afrique à l’Indochine. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles sont consommées cuites avec de la viande et ont une forte odeur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont consommées cuites avec de la viande et ont une forte odeur.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Nidorella aegyptiaca (L.) J.C.Manning &amp; Goldblatt[2].
-L'espèce a été initialement classée dans le genre Erigeron sous le basionyme Erigeron aegyptiacus L.[2].
-Nidorella aegyptiaca a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Nidorella aegyptiaca (L.) J.C.Manning &amp; Goldblatt.
+L'espèce a été initialement classée dans le genre Erigeron sous le basionyme Erigeron aegyptiacus L..
+Nidorella aegyptiaca a pour synonymes :
 Baccharis aegyptiaca (L.) Desf., 1804
 Baccharis dioscoridis Bové
 Baccharis dioscoridis Bové ex DC., 1836
